--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136353.6236823397</v>
+        <v>134096.0921100573</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6632862.567171201</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12846854.2271264</v>
+        <v>12846147.16330777</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>218.108463377012</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>139.9133151432366</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.75373650651796</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>101.7177065691261</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>69.2730811714503</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>157.2029797327297</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>22.34164242902995</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>95.04723844933341</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>353.3823013206189</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>60.46179076613092</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.715333384834437</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.7321536188796</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>42.04518470759558</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.464536558263</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9711388310543</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.65963851412518</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I12" t="n">
-        <v>8.915218264397224</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734111903</v>
       </c>
       <c r="S12" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.803454668018</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>40.90271986981397</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>45.13430253416205</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2121353820159</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.7321536188796</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>42.04518470759558</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.464536558263</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9711388310543</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.65963851412518</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I15" t="n">
-        <v>8.915218264396657</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734111903</v>
       </c>
       <c r="S15" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>134.0670329434594</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.51626366671984</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.1771250849618</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.8639731922165</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>6.681606521816022</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.7321536188796</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>42.04518470759555</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.4645365582629</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9711388310543</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.65963851412518</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I18" t="n">
-        <v>8.915218264397675</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.1429098734111903</v>
       </c>
       <c r="S18" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>13.44089326873407</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0312564930842</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>69.5861248669399</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.51626366671982</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>89.17712508496179</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S19" t="n">
-        <v>189.8639731922165</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.7321536188796</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>42.04518470759555</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.4645365582629</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9711388310543</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.65963851412518</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>8.915218264397675</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0312564930842</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>89.1771250849618</v>
+        <v>80.00124118081699</v>
       </c>
       <c r="S22" t="n">
-        <v>138.8108894697822</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5722280944081</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.7321536188796</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>42.04518470759555</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.4645365582629</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9711388310543</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.65963851412518</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>8.915218264397675</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U24" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>124.5729464953695</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>135.3328880593061</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>270.6007428140847</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>147.3615664548718</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.41948680756487</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>138.6444210303384</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>6.380068175848154</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>191.0001693352787</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,10 +3281,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.5436091222471</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>20.1074922253751</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>187.4806542717517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.260578216479</v>
+        <v>218.4926939877637</v>
       </c>
       <c r="U37" t="n">
-        <v>283.9234671459226</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>249.8492722641378</v>
+        <v>251.0813880354225</v>
       </c>
       <c r="W37" t="n">
-        <v>284.2346272769008</v>
+        <v>200.5119253692961</v>
       </c>
       <c r="X37" t="n">
-        <v>223.4212843293469</v>
+        <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.2962822924046</v>
+        <v>217.5283980636893</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433909</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996204</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433796</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1207.668958723993</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>838.7064417835813</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>838.7064417835813</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>838.7064417835813</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>427.7205369939738</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.515907621104</v>
+        <v>1207.668958723993</v>
       </c>
     </row>
     <row r="3">
@@ -4407,7 +4407,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>286.5323736931987</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="Y4" t="n">
-        <v>286.5323736931987</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837.1179892781316</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2572.147592284624</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2318.385806922716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1987.322919579145</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>1987.322919579145</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X5" t="n">
-        <v>1613.857161318065</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="Y5" t="n">
-        <v>1223.717829342253</v>
+        <v>2108.418929351565</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.4233909876363</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C7" t="n">
-        <v>224.4233909876363</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>224.4233909876363</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X7" t="n">
-        <v>224.4233909876363</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.4233909876363</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1207.668958723993</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1207.668958723993</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1207.668958723993</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>821.8807061257487</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>410.8948013361411</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2636.076575092838</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2636.076575092838</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1207.668958723993</v>
       </c>
     </row>
     <row r="9">
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9086980046678</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767609</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>195.2500315327868</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.846544663938</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.884027723527</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1647.618329116777</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.830076518532</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.8441717289247</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G11" t="n">
-        <v>435.7594529847897</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>138.0502069051133</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>283.4388946495274</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K11" t="n">
-        <v>936.6326723899232</v>
+        <v>939.1634975427198</v>
       </c>
       <c r="L11" t="n">
-        <v>1799.253940563948</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M11" t="n">
-        <v>2330.674458046862</v>
+        <v>2337.214217868</v>
       </c>
       <c r="N11" t="n">
-        <v>3308.281178632392</v>
+        <v>3316.966490094646</v>
       </c>
       <c r="O11" t="n">
-        <v>4080.721338735274</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4473.766574984809</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4720.754432041042</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4779.016168104373</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4668.445929156633</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4462.414475791931</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.883017578637</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.820130235066</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3525.051474964952</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3151.585716703872</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2761.44638472806</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960.6800021268584</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>786.2269728457314</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>637.2925631844802</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>478.0551081790247</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>331.5205502059097</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>195.1508857646353</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>104.5855943362261</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>188.6497545038421</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>425.8750609309151</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>791.1763019983993</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.822488350013</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1708.672248108487</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
-        <v>2118.102799755744</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2427.373847244438</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2584.194155770509</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R12" t="n">
-        <v>2584.194155770509</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2454.634340755505</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2261.964881803066</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2033.896603077357</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1798.744494845615</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1544.507138117413</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1336.65563791188</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1128.895339146927</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>897.0181812652921</v>
+        <v>806.0698143348269</v>
       </c>
       <c r="C13" t="n">
-        <v>728.0819983373852</v>
+        <v>637.13363140692</v>
       </c>
       <c r="D13" t="n">
-        <v>577.9653589250495</v>
+        <v>487.0169919945843</v>
       </c>
       <c r="E13" t="n">
-        <v>430.0522653426564</v>
+        <v>339.1038984121911</v>
       </c>
       <c r="F13" t="n">
-        <v>283.162317844746</v>
+        <v>339.1038984121911</v>
       </c>
       <c r="G13" t="n">
-        <v>283.162317844746</v>
+        <v>339.1038984121911</v>
       </c>
       <c r="H13" t="n">
-        <v>136.8962020184652</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I13" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.3216175627468</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>343.682144630511</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>659.4400393012521</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1002.751589802365</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1343.334575393459</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
-        <v>1641.901792025959</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1873.856942706698</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q13" t="n">
-        <v>1951.015585704211</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1951.015585704211</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1951.015585704211</v>
+        <v>1820.922804282271</v>
       </c>
       <c r="T13" t="n">
-        <v>1951.015585704211</v>
+        <v>1820.922804282271</v>
       </c>
       <c r="U13" t="n">
-        <v>1661.91241865167</v>
+        <v>1531.819937407914</v>
       </c>
       <c r="V13" t="n">
-        <v>1407.227930445783</v>
+        <v>1277.135449202027</v>
       </c>
       <c r="W13" t="n">
-        <v>1117.810760408822</v>
+        <v>987.7182791650664</v>
       </c>
       <c r="X13" t="n">
-        <v>1117.810760408822</v>
+        <v>987.7182791650664</v>
       </c>
       <c r="Y13" t="n">
-        <v>897.0181812652921</v>
+        <v>987.7182791650664</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.846544663938</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.884027723527</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1647.618329116777</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.830076518533</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.8441717289247</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.7594529847897</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>138.0502069051133</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I14" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>283.4388946495274</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K14" t="n">
-        <v>615.7287139444702</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L14" t="n">
-        <v>1248.737035753496</v>
+        <v>1482.778354750622</v>
       </c>
       <c r="M14" t="n">
-        <v>2225.175951394314</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3202.782671979844</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O14" t="n">
-        <v>4080.721338735274</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4473.766574984809</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4720.754432041042</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4779.016168104373</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4668.445929156633</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4462.414475791931</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.883017578637</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.820130235066</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3525.051474964952</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3151.585716703872</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2761.44638472806</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>960.6800021268577</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>786.2269728457308</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>637.2925631844796</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>478.055108179024</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>331.5205502059091</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>195.1508857646348</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>104.5855943362255</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>188.6497545038421</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>425.8750609309152</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>791.1763019983989</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.822488350012</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1708.672248108487</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
-        <v>2118.102799755744</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2427.373847244437</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2584.194155770509</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R15" t="n">
-        <v>2584.194155770509</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2454.634340755505</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2261.964881803066</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2033.896603077357</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1798.744494845614</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1544.507138117413</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1336.65563791188</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1128.895339146926</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>487.8745398633201</v>
+        <v>529.012012840557</v>
       </c>
       <c r="C16" t="n">
-        <v>487.8745398633201</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D16" t="n">
-        <v>487.8745398633201</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>339.961446280927</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>193.0714987830167</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>193.0714987830167</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>193.0714987830167</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.58032336208747</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.3216175627468</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>343.682144630511</v>
+        <v>344.6708498442067</v>
       </c>
       <c r="L16" t="n">
-        <v>659.4400393012521</v>
+        <v>661.2306482927029</v>
       </c>
       <c r="M16" t="n">
-        <v>1002.751589802365</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1343.334575393459</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
-        <v>1641.901792025959</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1873.856942706699</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q16" t="n">
-        <v>1951.015585704211</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1860.937681577988</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1669.155890474739</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T16" t="n">
-        <v>1669.155890474739</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="U16" t="n">
-        <v>1662.406792977955</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V16" t="n">
-        <v>1407.722304772068</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W16" t="n">
-        <v>1118.305134735107</v>
+        <v>931.4530568143268</v>
       </c>
       <c r="X16" t="n">
-        <v>890.3155838370901</v>
+        <v>931.4530568143268</v>
       </c>
       <c r="Y16" t="n">
-        <v>669.5230046935599</v>
+        <v>710.6604776707967</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.846544663939</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.884027723527</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1647.618329116777</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.830076518532</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.8441717289247</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G17" t="n">
-        <v>435.7594529847897</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H17" t="n">
-        <v>138.0502069051133</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I17" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>283.4388946495274</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K17" t="n">
-        <v>615.7287139444702</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.349982118496</v>
+        <v>1482.778354750622</v>
       </c>
       <c r="M17" t="n">
-        <v>2454.788897759313</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3432.395618344844</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O17" t="n">
-        <v>4080.721338735274</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4473.766574984809</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4720.754432041042</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4779.016168104373</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4668.445929156633</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4462.414475791931</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.883017578637</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.820130235067</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3525.051474964952</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3151.585716703873</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2761.446384728061</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>960.6800021268589</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>786.2269728457319</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>637.2925631844806</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>478.0551081790251</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>331.5205502059101</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>195.1508857646358</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>104.5855943362265</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>188.6497545038421</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>425.8750609309152</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>791.1763019983995</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.822488350013</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1708.672248108488</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
-        <v>2118.102799755745</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2427.373847244438</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2584.19415577051</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R18" t="n">
-        <v>2584.19415577051</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2454.634340755506</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2261.964881803067</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2033.896603077358</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1798.744494845615</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1544.507138117414</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1336.655637911881</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1128.895339146927</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1044.924717112678</v>
+        <v>721.0874507179544</v>
       </c>
       <c r="C19" t="n">
-        <v>875.9885341847711</v>
+        <v>707.5107908505463</v>
       </c>
       <c r="D19" t="n">
-        <v>725.8718947724353</v>
+        <v>557.3941514382105</v>
       </c>
       <c r="E19" t="n">
-        <v>577.9588011900422</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F19" t="n">
-        <v>431.0688536921318</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>263.3605138001276</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>193.0714987830166</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.3216175627469</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K19" t="n">
-        <v>343.6821446305111</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>659.4400393012522</v>
+        <v>661.2306482927029</v>
       </c>
       <c r="M19" t="n">
-        <v>1002.751589802365</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1343.33457539346</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
-        <v>1641.90179202596</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1873.856942706699</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q19" t="n">
-        <v>1951.015585704212</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R19" t="n">
-        <v>1860.937681577988</v>
+        <v>1866.513008862233</v>
       </c>
       <c r="S19" t="n">
-        <v>1669.155890474739</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T19" t="n">
-        <v>1447.365761086448</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="U19" t="n">
-        <v>1447.365761086448</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="V19" t="n">
-        <v>1447.365761086448</v>
+        <v>1420.142636483172</v>
       </c>
       <c r="W19" t="n">
-        <v>1447.365761086448</v>
+        <v>1130.725466446212</v>
       </c>
       <c r="X19" t="n">
-        <v>1447.365761086448</v>
+        <v>902.7359155481942</v>
       </c>
       <c r="Y19" t="n">
-        <v>1226.573181942918</v>
+        <v>902.7359155481942</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.846544663938</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.884027723527</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1647.618329116777</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.830076518533</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.8441717289247</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.75945298479</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
-        <v>138.0502069051136</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>283.4388946495274</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>615.7287139444702</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.349982118496</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2454.788897759313</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>3432.395618344844</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
-        <v>4080.721338735274</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4473.766574984809</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4720.754432041042</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4779.016168104373</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4668.445929156633</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4462.414475791931</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.883017578637</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.820130235066</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3525.051474964952</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3151.585716703872</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2761.44638472806</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>960.6800021268589</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>786.2269728457319</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>637.2925631844806</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>478.0551081790251</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>331.5205502059101</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>195.1508857646358</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>104.5855943362265</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>188.6497545038421</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>425.8750609309152</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>791.1763019983995</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
-        <v>1236.822488350013</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1708.672248108488</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2118.102799755745</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2427.373847244438</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2584.19415577051</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2584.19415577051</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2454.634340755506</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2261.964881803067</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2033.896603077358</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1798.744494845615</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1544.507138117414</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1336.655637911881</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1128.895339146927</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.2886632540917</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2886632540917</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2886632540917</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2886632540917</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2886632540917</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G22" t="n">
-        <v>95.58032336208746</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.3216175627468</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>343.6821446305111</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L22" t="n">
-        <v>659.4400393012522</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
-        <v>1002.751589802365</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1343.33457539346</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1641.90179202596</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1873.856942706699</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1951.015585704212</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1860.937681577988</v>
+        <v>1875.534131578625</v>
       </c>
       <c r="S22" t="n">
-        <v>1720.724661911541</v>
+        <v>1875.534131578625</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.93453252325</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.831365470709</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1468772648221</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="W22" t="n">
-        <v>665.7297072278615</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X22" t="n">
-        <v>665.7297072278615</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y22" t="n">
-        <v>444.9371280843313</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.846544663939</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.884027723527</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1647.618329116777</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.830076518532</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.8441717289247</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.7594529847897</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>138.0502069051133</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>283.4388946495274</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>615.7287139444702</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.349982118496</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2454.788897759313</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>3432.395618344844</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>4080.721338735274</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4473.766574984809</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4720.754432041042</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4779.016168104373</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4668.445929156633</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4462.414475791931</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.883017578637</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.820130235067</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3525.051474964952</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3151.585716703873</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2761.446384728061</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>960.6800021268589</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>786.2269728457319</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>637.2925631844806</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>478.0551081790251</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>331.5205502059101</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>195.1508857646358</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>104.5855943362265</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>188.6497545038421</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>425.8750609309152</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>791.1763019983995</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
-        <v>1236.822488350013</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1708.672248108488</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2118.102799755745</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2427.373847244438</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2584.19415577051</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2584.19415577051</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2454.634340755506</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2261.964881803067</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2033.896603077358</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1798.744494845615</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1544.507138117414</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1336.655637911881</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1128.895339146927</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>708.172744680566</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C25" t="n">
-        <v>539.2365617526591</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D25" t="n">
-        <v>389.1199223403235</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>389.1199223403235</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2886632540917</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.58032336208746</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.3216175627469</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>343.6821446305111</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>659.4400393012522</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1002.751589802365</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1343.33457539346</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1641.90179202596</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1873.856942706699</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
-        <v>1951.015585704212</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1951.015585704212</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1951.015585704212</v>
+        <v>1729.813121933639</v>
       </c>
       <c r="T25" t="n">
-        <v>1951.015585704212</v>
+        <v>1508.046506503165</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.912418651671</v>
+        <v>1508.046506503165</v>
       </c>
       <c r="V25" t="n">
-        <v>1407.227930445784</v>
+        <v>1253.362018297278</v>
       </c>
       <c r="W25" t="n">
-        <v>1117.810760408823</v>
+        <v>963.9448482603173</v>
       </c>
       <c r="X25" t="n">
-        <v>889.8212095108057</v>
+        <v>963.9448482603173</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.8212095108057</v>
+        <v>743.1522691167871</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6254,22 +6254,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.7429179653793</v>
+        <v>826.5323180934831</v>
       </c>
       <c r="C28" t="n">
-        <v>506.8067350374724</v>
+        <v>657.5961351655762</v>
       </c>
       <c r="D28" t="n">
-        <v>506.8067350374724</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374724</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374724</v>
+        <v>360.5895482553302</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121914</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
         <v>192.8867116300491</v>
@@ -6400,34 +6400,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U28" t="n">
-        <v>1401.493041038467</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>1146.80855283258</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W28" t="n">
-        <v>857.3913827956191</v>
+        <v>1377.823429193386</v>
       </c>
       <c r="X28" t="n">
-        <v>857.3913827956191</v>
+        <v>1228.973362067253</v>
       </c>
       <c r="Y28" t="n">
-        <v>857.3913827956191</v>
+        <v>1008.180782923723</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6467,16 +6467,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6531,22 +6531,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>390.3640755286979</v>
+        <v>709.4168978689406</v>
       </c>
       <c r="C31" t="n">
-        <v>390.3640755286979</v>
+        <v>540.4807149410337</v>
       </c>
       <c r="D31" t="n">
         <v>390.3640755286979</v>
@@ -6619,13 +6619,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6637,7 +6637,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
@@ -6646,25 +6646,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501055</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1594.531980946615</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208121</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838515</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858342</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858342</v>
+        <v>891.0653626991804</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>270.9417306852389</v>
+        <v>709.4168978689404</v>
       </c>
       <c r="C34" t="n">
-        <v>102.005547757332</v>
+        <v>540.4807149410335</v>
       </c>
       <c r="D34" t="n">
-        <v>102.005547757332</v>
+        <v>390.3640755286978</v>
       </c>
       <c r="E34" t="n">
-        <v>102.005547757332</v>
+        <v>242.4509819463046</v>
       </c>
       <c r="F34" t="n">
-        <v>102.005547757332</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6859,49 +6859,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1763.414002129674</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799874</v>
+        <v>1474.311135255318</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593987</v>
+        <v>1219.626647049431</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570261</v>
+        <v>930.2094770124705</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590088</v>
+        <v>930.2094770124705</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.5901955154786</v>
+        <v>709.4168978689404</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7029,25 +7029,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>115.871632655844</v>
+        <v>553.1702317524994</v>
       </c>
       <c r="C37" t="n">
-        <v>115.871632655844</v>
+        <v>553.1702317524994</v>
       </c>
       <c r="D37" t="n">
-        <v>115.871632655844</v>
+        <v>553.1702317524994</v>
       </c>
       <c r="E37" t="n">
-        <v>115.871632655844</v>
+        <v>553.1702317524994</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>407.347208788332</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>240.7112966967938</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>142.9491542444234</v>
+        <v>141.7293596308513</v>
       </c>
       <c r="K37" t="n">
-        <v>349.2018245423931</v>
+        <v>346.7622353152491</v>
       </c>
       <c r="L37" t="n">
-        <v>668.0271103399825</v>
+        <v>664.3677264992666</v>
       </c>
       <c r="M37" t="n">
-        <v>1014.449643288625</v>
+        <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1358.123507343583</v>
+        <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1659.71859361309</v>
+        <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
-        <v>1894.591581395842</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1974.46736489745</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1974.46736489745</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="S37" t="n">
-        <v>1785.092966643156</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="T37" t="n">
-        <v>1565.637837131561</v>
+        <v>1744.009317092143</v>
       </c>
       <c r="U37" t="n">
-        <v>1278.846456176084</v>
+        <v>1455.97337475153</v>
       </c>
       <c r="V37" t="n">
-        <v>1026.473453889076</v>
+        <v>1202.355811079386</v>
       </c>
       <c r="W37" t="n">
-        <v>739.3677697709941</v>
+        <v>999.8185127265612</v>
       </c>
       <c r="X37" t="n">
-        <v>513.6897047918558</v>
+        <v>772.8958863622867</v>
       </c>
       <c r="Y37" t="n">
-        <v>295.2086115672047</v>
+        <v>553.1702317524994</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7202,16 +7202,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193584</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
         <v>794.200663232024</v>
@@ -7263,28 +7263,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7391,19 +7391,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7415,19 +7415,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1732.058578925876</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2265.590483597801</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2812.369300656583</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215044</v>
+        <v>788.515167821506</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416708</v>
+        <v>667.0286178416724</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774084</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430886</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036708</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,16 +7755,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
@@ -7798,19 +7798,19 @@
         <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
         <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499226</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2360331288583</v>
+        <v>258.6211785616908</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858435</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.546395060290962</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>185.7289454948955</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400234</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.546395060290962</v>
+        <v>-6.503250153370111e-14</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>148.8679122071902</v>
+        <v>133.2530576400234</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858389</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5463950602909335</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>148.8679122071902</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858389</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5463950602909335</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>148.8679122071902</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858389</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.5463950602909335</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2173930448433</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0312564930842</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>55.61354379690586</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.17712508496182</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.8639731922165</v>
+        <v>144.6347227972798</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5722280944081</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>33.17978815516843</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0312564930842</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.803454668018</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5722280944081</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>279.5305288601999</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>153.8059278298938</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>75.21732980107809</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2121353820159</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.51626366671982</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>8.930911489230359</v>
       </c>
       <c r="S22" t="n">
-        <v>51.05308372243428</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>20.84810152756175</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.803454668018</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.51626366671982</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>89.17712508496179</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.8639731922165</v>
+        <v>54.4361372721358</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>15.61109539152816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>78.34808893416538</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.41249337437243</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>147.5674171752744</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>159.6457400831801</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25126,7 +25126,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>28.54877994089054</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935318</v>
       </c>
       <c r="C37" t="n">
-        <v>164.9584500389376</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>146.3271019585221</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>144.1455915868789</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
-        <v>123.0251847378659</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.737437199338</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.4666438546305</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>94.06404935014785</v>
+        <v>95.29616512143267</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>86.6437816103571</v>
+        <v>87.87589738164189</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430364</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>84.95481767888944</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>7.034373084024992e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1089497.985566608</v>
+        <v>1089476.402984364</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1089497.985566608</v>
+        <v>1089476.402984364</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1089497.985566608</v>
+        <v>1089476.402984364</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1089497.985566608</v>
+        <v>1089476.402984365</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1089497.985566608</v>
+        <v>1089476.402984365</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1089476.402984365</v>
+        <v>1089476.402984364</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1091244.036719384</v>
+        <v>1090292.298847351</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
-        <v>317609.0302282807</v>
+        <v>317665.4295095865</v>
       </c>
       <c r="F2" t="n">
-        <v>317609.0302282806</v>
+        <v>317665.4295095864</v>
       </c>
       <c r="G2" t="n">
-        <v>317609.0302282808</v>
+        <v>317665.4295095865</v>
       </c>
       <c r="H2" t="n">
-        <v>317609.0302282809</v>
+        <v>317665.4295095863</v>
       </c>
       <c r="I2" t="n">
-        <v>317609.030228281</v>
+        <v>317665.4295095863</v>
       </c>
       <c r="J2" t="n">
         <v>317665.4295095864</v>
       </c>
       <c r="K2" t="n">
-        <v>317665.4295095865</v>
+        <v>317665.4295095866</v>
       </c>
       <c r="L2" t="n">
         <v>317665.4295095864</v>
       </c>
       <c r="M2" t="n">
-        <v>318189.1728384814</v>
+        <v>317907.1764319527</v>
       </c>
       <c r="N2" t="n">
+        <v>328416.7079457135</v>
+      </c>
+      <c r="O2" t="n">
+        <v>328416.7079457134</v>
+      </c>
+      <c r="P2" t="n">
         <v>328416.7079457136</v>
-      </c>
-      <c r="O2" t="n">
-        <v>328416.7079457135</v>
-      </c>
-      <c r="P2" t="n">
-        <v>328416.7079457133</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>725022.0883529596</v>
+        <v>727377.4139934072</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178595.2595245353</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>131533.0976172964</v>
+        <v>130487.319069669</v>
       </c>
       <c r="N3" t="n">
-        <v>35749.41244712187</v>
+        <v>36735.10506414986</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26424,37 +26424,37 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18359.70425226884</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="F4" t="n">
-        <v>18359.70425226884</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="G4" t="n">
-        <v>18359.70425226884</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="H4" t="n">
-        <v>18359.70425226884</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="I4" t="n">
-        <v>18359.70425226884</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18901.48044000636</v>
+        <v>18496.05294811457</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740895</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96332.31363132432</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
-        <v>96332.31363132432</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="G5" t="n">
-        <v>96332.31363132433</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
-        <v>96332.31363132433</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96332.31363132433</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96575.89932033075</v>
+        <v>96472.31657955461</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26525,43 +26525,43 @@
         <v>62208.9430251758</v>
       </c>
       <c r="D6" t="n">
-        <v>62208.94302517583</v>
+        <v>62208.94302517592</v>
       </c>
       <c r="E6" t="n">
-        <v>-522105.0760082721</v>
+        <v>-524311.19054695</v>
       </c>
       <c r="F6" t="n">
-        <v>202917.0123446875</v>
+        <v>203066.223446457</v>
       </c>
       <c r="G6" t="n">
-        <v>202917.0123446874</v>
+        <v>203066.2234464571</v>
       </c>
       <c r="H6" t="n">
-        <v>202917.0123446877</v>
+        <v>203066.2234464574</v>
       </c>
       <c r="I6" t="n">
-        <v>202917.0123446878</v>
+        <v>203066.2234464569</v>
       </c>
       <c r="J6" t="n">
-        <v>24538.15941214743</v>
+        <v>26643.00425386409</v>
       </c>
       <c r="K6" t="n">
-        <v>203133.418936683</v>
+        <v>203066.2234464572</v>
       </c>
       <c r="L6" t="n">
-        <v>203133.4189366826</v>
+        <v>203066.223446457</v>
       </c>
       <c r="M6" t="n">
-        <v>71178.69546084788</v>
+        <v>72385.80326265359</v>
       </c>
       <c r="N6" t="n">
-        <v>158728.9711870806</v>
+        <v>157743.2785700526</v>
       </c>
       <c r="O6" t="n">
+        <v>194478.3836342022</v>
+      </c>
+      <c r="P6" t="n">
         <v>194478.3836342025</v>
-      </c>
-      <c r="P6" t="n">
-        <v>194478.3836342022</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26744,19 +26744,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1086.755407162287</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1086.755407162287</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1086.755407162287</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1086.755407162287</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1086.755407162287</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.754042026093</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.754042026093</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
-        <v>1194.754042026093</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.754042026093</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="I4" t="n">
-        <v>1194.754042026093</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="N2" t="n">
-        <v>44.68676555890234</v>
+        <v>45.91888133018712</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,34 +26966,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>709.0117429452</v>
+        <v>712.0330363762122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.021293431011145</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.4667692715376</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.0461613333925</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.4667692715376</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.4667692715376</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>195.675706643783</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>246.3246235128169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.0782436754193</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9919488199111</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>147.1752391862075</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>229.0349589233239</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>126.2738305891824</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>123.5374149027614</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>60.40186870017607</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>113.9539220428406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.1166467971029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>16.27690962649703</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-1.428838339121781e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="C37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="D37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="E37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="F37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="G37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="H37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="I37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="J37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="K37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="L37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="M37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="N37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="O37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="P37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="R37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="S37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="T37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="U37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="V37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="W37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="X37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.288371059690236</v>
+        <v>1.056255288405446</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.36886595844135</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H11" t="n">
-        <v>44.74264849688749</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I11" t="n">
-        <v>168.4307048628103</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>370.8020371402619</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>555.7361331610844</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L11" t="n">
-        <v>689.439814736734</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M11" t="n">
-        <v>767.1346347251653</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N11" t="n">
-        <v>779.5476751295869</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O11" t="n">
-        <v>736.1047642553357</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P11" t="n">
-        <v>628.2483859063148</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.7883737696337</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R11" t="n">
-        <v>274.4357762619417</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.55553302798236</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T11" t="n">
-        <v>19.12471073307702</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.337549366349069</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.57580572237128</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.48141458701842</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J12" t="n">
-        <v>220.8471530724794</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>377.4629606178671</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L12" t="n">
-        <v>507.5455323732925</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M12" t="n">
-        <v>592.2816969034462</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N12" t="n">
-        <v>607.9576310312872</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O12" t="n">
-        <v>556.1624582295525</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P12" t="n">
-        <v>446.369404877657</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.3861261325584</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R12" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.41895423898379</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T12" t="n">
-        <v>9.421964331906992</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.42371783942159</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>58.93421126053845</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J13" t="n">
-        <v>138.5524065819853</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K13" t="n">
-        <v>227.6841656317052</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>291.3573430939678</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M13" t="n">
-        <v>307.1954669786771</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N13" t="n">
-        <v>299.8910453895538</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>276.9979191894957</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.0195727358534</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.1000664815053</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.11626629220767</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S13" t="n">
-        <v>34.15262484475578</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.373361333873353</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.36886595844135</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H14" t="n">
-        <v>44.74264849688749</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I14" t="n">
-        <v>168.4307048628103</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>370.8020371402619</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>555.7361331610844</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L14" t="n">
-        <v>689.439814736734</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M14" t="n">
-        <v>767.1346347251653</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N14" t="n">
-        <v>779.5476751295869</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O14" t="n">
-        <v>736.1047642553357</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P14" t="n">
-        <v>628.2483859063148</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.7883737696337</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R14" t="n">
-        <v>274.4357762619417</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.55553302798236</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T14" t="n">
-        <v>19.12471073307702</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.337549366349069</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.57580572237128</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.48141458701842</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J15" t="n">
-        <v>220.8471530724794</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>377.4629606178671</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L15" t="n">
-        <v>507.5455323732925</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M15" t="n">
-        <v>592.2816969034462</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N15" t="n">
-        <v>607.9576310312872</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O15" t="n">
-        <v>556.1624582295525</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P15" t="n">
-        <v>446.369404877657</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.3861261325584</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R15" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.41895423898379</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T15" t="n">
-        <v>9.421964331906992</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.42371783942159</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>58.93421126053845</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J16" t="n">
-        <v>138.5524065819853</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K16" t="n">
-        <v>227.6841656317052</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>291.3573430939678</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M16" t="n">
-        <v>307.1954669786771</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N16" t="n">
-        <v>299.8910453895538</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>276.9979191894957</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.0195727358534</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.1000664815053</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.11626629220767</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S16" t="n">
-        <v>34.15262484475578</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.373361333873353</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.368865958441351</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H17" t="n">
-        <v>44.7426484968875</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I17" t="n">
-        <v>168.4307048628104</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>370.802037140262</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>555.7361331610845</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L17" t="n">
-        <v>689.4398147367341</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M17" t="n">
-        <v>767.1346347251655</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N17" t="n">
-        <v>779.547675129587</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O17" t="n">
-        <v>736.1047642553358</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P17" t="n">
-        <v>628.2483859063149</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q17" t="n">
-        <v>471.7883737696338</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R17" t="n">
-        <v>274.4357762619418</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.55553302798239</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T17" t="n">
-        <v>19.12471073307702</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.33754936634907</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.57580572237129</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.48141458701843</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J18" t="n">
-        <v>220.8471530724795</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>377.4629606178672</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L18" t="n">
-        <v>507.5455323732926</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M18" t="n">
-        <v>592.2816969034463</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N18" t="n">
-        <v>607.9576310312873</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O18" t="n">
-        <v>556.1624582295526</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
-        <v>446.3694048776571</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.3861261325585</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R18" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.41895423898379</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T18" t="n">
-        <v>9.421964331906993</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4237178394216</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>58.93421126053845</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J19" t="n">
-        <v>138.5524065819853</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K19" t="n">
-        <v>227.6841656317053</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>291.3573430939679</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M19" t="n">
-        <v>307.1954669786772</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N19" t="n">
-        <v>299.8910453895539</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>276.9979191894957</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.0195727358534</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.1000664815053</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.1162662922077</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.15262484475579</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.373361333873355</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.368865958441351</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.7426484968875</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.4307048628104</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>370.802037140262</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>555.7361331610845</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>689.4398147367341</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>767.1346347251655</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>779.547675129587</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>736.1047642553358</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>628.2483859063149</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>471.7883737696338</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>274.4357762619418</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.55553302798239</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.12471073307702</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.33754936634907</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.57580572237129</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.48141458701843</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>220.8471530724795</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>377.4629606178672</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>507.5455323732926</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>592.2816969034463</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>607.9576310312873</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>556.1624582295526</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>446.3694048776571</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.3861261325585</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.41895423898379</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.421964331906993</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4237178394216</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>58.93421126053845</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.5524065819853</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>227.6841656317053</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>291.3573430939679</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>307.1954669786772</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>299.8910453895539</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>276.9979191894957</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.0195727358534</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.1000664815053</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.1162662922077</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.15262484475579</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.373361333873355</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.368865958441351</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.7426484968875</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.4307048628104</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>370.802037140262</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>555.7361331610845</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>689.4398147367341</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>767.1346347251655</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>779.547675129587</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>736.1047642553358</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>628.2483859063149</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>471.7883737696338</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>274.4357762619418</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.55553302798239</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
-        <v>19.12471073307702</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.33754936634907</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.57580572237129</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.48141458701843</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>220.8471530724795</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>377.4629606178672</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>507.5455323732926</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>592.2816969034463</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>607.9576310312873</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>556.1624582295526</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>446.3694048776571</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.3861261325585</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.41895423898379</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.421964331906993</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4237178394216</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>58.93421126053845</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
-        <v>138.5524065819853</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>227.6841656317053</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>291.3573430939679</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>307.1954669786772</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>299.8910453895539</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>276.9979191894957</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.0195727358534</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.1000664815053</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.1162662922077</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.15262484475579</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.373361333873355</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>189.7561326135756</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>659.7916946872685</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L11" t="n">
-        <v>871.3346143171972</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M11" t="n">
-        <v>536.7884014978926</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N11" t="n">
-        <v>987.4815359449801</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O11" t="n">
-        <v>780.2425859625072</v>
+        <v>766.6741794499103</v>
       </c>
       <c r="P11" t="n">
-        <v>397.0153901510452</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.4826838951842</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R11" t="n">
-        <v>58.8502384478096</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.00952640581275</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K12" t="n">
-        <v>239.6215216435081</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L12" t="n">
-        <v>368.9911525934183</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>450.1476629814279</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N12" t="n">
-        <v>476.6159189479539</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5662137851081</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P12" t="n">
-        <v>312.3949974633268</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.4043520465369</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19322646531251</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K13" t="n">
-        <v>205.4146738058224</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L13" t="n">
-        <v>318.947368354284</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>346.7793439405177</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.0232177687824</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>301.5830471035354</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P13" t="n">
-        <v>234.2981320007468</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.9380232298109</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>189.7561326135756</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>335.6462821161038</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L14" t="n">
-        <v>639.4023452616423</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M14" t="n">
-        <v>986.301934990725</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N14" t="n">
-        <v>987.4815359449801</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O14" t="n">
-        <v>886.8067340963943</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P14" t="n">
-        <v>397.0153901510452</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.4826838951842</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R14" t="n">
-        <v>58.8502384478096</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.00952640581275</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K15" t="n">
-        <v>239.6215216435081</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L15" t="n">
-        <v>368.9911525934183</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>450.1476629814279</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N15" t="n">
-        <v>476.6159189479539</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O15" t="n">
-        <v>413.5662137851081</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P15" t="n">
-        <v>312.3949974633268</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.4043520465369</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19322646531251</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K16" t="n">
-        <v>205.4146738058224</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L16" t="n">
-        <v>318.947368354284</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>346.7793439405177</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.0232177687824</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>301.5830471035354</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P16" t="n">
-        <v>234.2981320007468</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.9380232298109</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>189.7561326135757</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>335.6462821161039</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L17" t="n">
-        <v>871.3346143171973</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M17" t="n">
-        <v>986.3019349907253</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N17" t="n">
-        <v>987.4815359449802</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O17" t="n">
-        <v>654.8744650408393</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P17" t="n">
-        <v>397.0153901510453</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q17" t="n">
-        <v>249.4826838951843</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R17" t="n">
-        <v>58.85023844780966</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.00952640581281</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K18" t="n">
-        <v>239.6215216435082</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L18" t="n">
-        <v>368.9911525934185</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>450.147662981428</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N18" t="n">
-        <v>476.615918947954</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O18" t="n">
-        <v>413.5662137851082</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
-        <v>312.3949974633269</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.404352046537</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19322646531253</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K19" t="n">
-        <v>205.4146738058224</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L19" t="n">
-        <v>318.947368354284</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>346.7793439405178</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.0232177687825</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>301.5830471035354</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P19" t="n">
-        <v>234.2981320007469</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.93802322981092</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>189.7561326135757</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>335.6462821161039</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>871.3346143171973</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>986.3019349907253</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>987.4815359449802</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>654.8744650408393</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P20" t="n">
-        <v>397.0153901510453</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>249.4826838951843</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>58.85023844780966</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.00952640581281</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>239.6215216435082</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>368.9911525934185</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>450.147662981428</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>476.615918947954</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>413.5662137851082</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>312.3949974633269</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.404352046537</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19322646531253</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>205.4146738058224</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>318.947368354284</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>346.7793439405178</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.0232177687825</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>301.5830471035354</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.2981320007469</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>77.93802322981092</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>189.7561326135757</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>335.6462821161039</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>871.3346143171973</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>986.3019349907253</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>987.4815359449802</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>654.8744650408393</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P23" t="n">
-        <v>397.0153901510453</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>249.4826838951843</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>58.85023844780966</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.00952640581281</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>239.6215216435082</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>368.9911525934185</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>450.147662981428</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>476.615918947954</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>413.5662137851082</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>312.3949974633269</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.404352046537</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19322646531253</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>205.4146738058224</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>318.947368354284</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>346.7793439405178</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.0232177687825</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>301.5830471035354</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.2981320007469</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>77.93802322981092</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.86678767275649</v>
+        <v>46.63467190147165</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3360306040098</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>322.0457432298883</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>349.9217504531741</v>
+        <v>348.6896346818892</v>
       </c>
       <c r="N37" t="n">
-        <v>347.1453172272303</v>
+        <v>345.9132014559455</v>
       </c>
       <c r="O37" t="n">
-        <v>304.64150128233</v>
+        <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>237.2454422048007</v>
+        <v>236.0133264335158</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.68260959758389</v>
+        <v>79.45049382629908</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37783,7 +37783,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>631.8075074371754</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37792,13 +37792,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
